--- a/Templates/metabolic rate/0_template_metabolic_rate_full.xlsx
+++ b/Templates/metabolic rate/0_template_metabolic_rate_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97D9A64-83BD-42FD-8018-34D48DC7235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FED871E-21C3-4FB3-A9AB-25826343F6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="205">
   <si>
     <t>Column_name</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4A4287-8E3D-4397-A816-EFA5A084117A}">
   <dimension ref="A1:CE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1287,7 @@
         <v>95</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="T1" s="15" t="s">
         <v>27</v>
@@ -1488,9 +1491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>132</v>

--- a/Templates/metabolic rate/0_template_metabolic_rate_full.xlsx
+++ b/Templates/metabolic rate/0_template_metabolic_rate_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E30AE96-C074-4A67-8F11-CDF1D731D690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF13451-BC4E-4CA6-AD63-89B5C2CD5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="259">
   <si>
     <t>Column_name</t>
   </si>
@@ -803,13 +803,16 @@
   </si>
   <si>
     <t>kPa: kilopascals; sat: saturation; mg_l: miligrams per liter; mL_L: mililiters per liter</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -826,6 +829,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -926,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,6 +1016,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,12 +1334,12 @@
   <dimension ref="A1:DG1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:111" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:111" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>128</v>
       </c>
       <c r="AR1" s="34" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="AS1" s="34" t="s">
         <v>47</v>
@@ -1672,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B112"/>
     </sheetView>
   </sheetViews>
@@ -2307,7 +2319,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>156</v>
